--- a/cimtábla.xlsx
+++ b/cimtábla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tanulók\Vince Attila\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20392116-D9B2-4742-B426-75AD37413F11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59283964-5FC0-4AC2-AC67-F69C3FC7E0B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{D89D1DB3-AAE6-4CFF-A44C-7046E38F720D}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Ip cim</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
   <si>
     <t>Alhálózati Maszk</t>
   </si>
@@ -36,13 +33,223 @@
     <t>Eszközneve</t>
   </si>
   <si>
-    <t>DNS szerver</t>
-  </si>
-  <si>
     <t>Default Gateway</t>
   </si>
   <si>
-    <t>DHCP Kliens</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>Ipv6 cím</t>
+  </si>
+  <si>
+    <t>Link local cím</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>SW9</t>
+  </si>
+  <si>
+    <t>SW10</t>
+  </si>
+  <si>
+    <t>SW11</t>
+  </si>
+  <si>
+    <t>SW12</t>
+  </si>
+  <si>
+    <t>Gig0/1</t>
+  </si>
+  <si>
+    <t>Gig0/2</t>
+  </si>
+  <si>
+    <t>Gig0/1.10</t>
+  </si>
+  <si>
+    <t>Gig0/2.20</t>
+  </si>
+  <si>
+    <t>192.168.26.1</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>192.168.26.33</t>
+  </si>
+  <si>
+    <t>Se/0/3/0</t>
+  </si>
+  <si>
+    <t>172.16.1.1</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>Gig0/0</t>
+  </si>
+  <si>
+    <t>192.168.30.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R2</t>
+  </si>
+  <si>
+    <t>192.168.26.65</t>
+  </si>
+  <si>
+    <t>Gig0/1.30</t>
+  </si>
+  <si>
+    <t>192.168.27.1</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>Se/0/3/1</t>
+  </si>
+  <si>
+    <t>172.16.1.2</t>
+  </si>
+  <si>
+    <t>172.16.2.1</t>
+  </si>
+  <si>
+    <t>Se0/3/0</t>
+  </si>
+  <si>
+    <t>Se0/3/1</t>
+  </si>
+  <si>
+    <t>192.168.28.1</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>192.168.28.129</t>
+  </si>
+  <si>
+    <t>172.16.2.2</t>
+  </si>
+  <si>
+    <t>172.16.3.1</t>
+  </si>
+  <si>
+    <t>Gig0/0.40</t>
+  </si>
+  <si>
+    <t>192.168.29.1</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>Gig0/0.50</t>
+  </si>
+  <si>
+    <t>Gig0/0.60</t>
+  </si>
+  <si>
+    <t>192.168.29.17</t>
+  </si>
+  <si>
+    <t>192.168.29.33</t>
+  </si>
+  <si>
+    <t>172.16.4.1</t>
+  </si>
+  <si>
+    <t>172.16.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gig0/0 </t>
+  </si>
+  <si>
+    <t>Ipv4 cim</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>172.16.4.2</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:2::1</t>
+  </si>
+  <si>
+    <t>/64</t>
+  </si>
+  <si>
+    <t>FE80::2</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:1::1</t>
+  </si>
+  <si>
+    <t>FE80::1</t>
+  </si>
+  <si>
+    <t>FE80::3</t>
+  </si>
+  <si>
+    <t>2001:DB8:F:3::1</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>192.168.30.2</t>
+  </si>
+  <si>
+    <t>192.168.31.1</t>
   </si>
 </sst>
 </file>
@@ -68,12 +275,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,9 +301,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -405,40 +630,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489F2DA-B4AF-4E4E-B9DD-2391063EE7C5}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
